--- a/Approach/1 - Communication/Communication part of the approach - Description and prompts.xlsx
+++ b/Approach/1 - Communication/Communication part of the approach - Description and prompts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludov\Desktop\Thesis\Chapters\GitHub repository\Approach\Communication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludov\Desktop\Thesis\Chapters\GitHub repository\Approach\1 - Communication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A613E1-0D55-4398-814C-CC9DAA73D58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00DC3F6-09A6-4613-BFC2-C7863F92EC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,7 +598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -658,75 +658,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,6 +689,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,60 +793,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1145,49 +1137,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="2:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="2:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
@@ -1198,129 +1190,129 @@
       <c r="B6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="21">
         <v>1</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
     </row>
     <row r="8" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
     </row>
     <row r="9" spans="2:11" ht="312.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20">
         <v>2</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
     </row>
     <row r="10" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="20">
         <v>2.1</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
     </row>
     <row r="11" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20">
         <v>3</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
     </row>
     <row r="12" spans="2:11" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20">
         <v>4</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="2:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="20">
         <v>5</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
@@ -1343,63 +1335,57 @@
       <c r="B17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
     </row>
     <row r="18" spans="2:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <v>0</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
     </row>
     <row r="19" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
     </row>
     <row r="20" spans="2:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="17">
         <v>2</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
     </row>
     <row r="21" spans="2:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17">
         <v>3</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:K3"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C6:K6"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C18:E18"/>
@@ -1408,6 +1394,12 @@
     <mergeCell ref="C12:K12"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B1:K3"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1419,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBC7536-A3AD-48EB-B3AE-05D4F8AB5A74}">
   <dimension ref="C2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,104 +1423,104 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="45" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="76">
+      <c r="C3" s="52">
         <v>1</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G3" s="39">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="67">
+      <c r="C4" s="43">
         <v>2</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="78">
+      <c r="G4" s="54">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="66">
+      <c r="C5" s="42">
         <v>3</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="78">
+      <c r="G5" s="54">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="66">
+      <c r="C6" s="42">
         <v>3</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="54">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="66">
+      <c r="C7" s="42">
         <v>3</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="54">
         <v>4</v>
       </c>
     </row>
@@ -1538,11 +1530,11 @@
       </c>
     </row>
     <row r="10" spans="3:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1562,7 +1554,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.28515625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1614,7 +1606,7 @@
       <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -2573,7 +2565,7 @@
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="41" t="s">
         <v>36</v>
       </c>
       <c r="D1"/>
@@ -3286,11 +3278,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
-      <c r="C7" s="36" t="s">
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="42" t="str">
+      <c r="D7" t="str">
         <f>_xlfn.CONCAT("* """,C7)</f>
         <v>* "A</v>
       </c>
@@ -3299,11 +3290,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="36"/>
-      <c r="C8" s="40" t="s">
+      <c r="C8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="42" t="str">
+      <c r="D8" t="str">
         <f>_xlfn.CONCAT("* """,C8)</f>
         <v>* "E</v>
       </c>
@@ -3340,16 +3330,16 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="41" t="str">
+      <c r="D15" s="26" t="str">
         <f>_xlfn.CONCAT("* """,C15)</f>
         <v>* "B</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3357,11 +3347,11 @@
       <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="41" t="str">
+      <c r="D16" s="26" t="str">
         <f>_xlfn.CONCAT("* """,C16)</f>
         <v>* "F</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3439,290 +3429,290 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="27" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="63">
+      <c r="B3" s="40">
         <v>0</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="37">
         <f>COUNTA('All sentences'!D6:D13)</f>
         <v>8</v>
       </c>
-      <c r="F3" s="57"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="60">
+      <c r="B4" s="72">
         <v>1</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="28">
         <f>COUNTIF('All sentences'!F$6:F$13, 'Results statistics'!D4)</f>
         <v>6</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="61"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="28">
         <f>COUNTIF('All sentences'!F$6:F$13, 'Results statistics'!D5)</f>
         <v>2</v>
       </c>
-      <c r="F5" s="44"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="62"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="58" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="35">
         <f>E4+E5</f>
         <v>8</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="60">
+      <c r="B7" s="72">
         <v>2</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="28">
         <f>COUNTIF('Level 2'!G$6:G$11, 'Results statistics'!D7)</f>
         <v>2</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="28">
         <f>E7/E$4 * 100</f>
         <v>33.333333333333329</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="61"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="47" t="s">
+      <c r="B8" s="73"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="28">
         <f>COUNTIF('Level 2'!G$6:G$11, 'Results statistics'!D8)</f>
         <v>2</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="28">
         <f t="shared" ref="F8:F9" si="0">E8/E$4 * 100</f>
         <v>33.333333333333329</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="61"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="48" t="s">
+      <c r="B9" s="73"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="28">
         <f>COUNTIF('Level 2'!G$6:G$11, 'Results statistics'!D9)</f>
         <v>2</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="28">
         <f t="shared" si="0"/>
         <v>33.333333333333329</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="62"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="23"/>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="35">
         <f>SUM(E7:E9)</f>
         <v>6</v>
       </c>
-      <c r="F10" s="55"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="60">
+      <c r="B11" s="72">
         <v>3</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="28">
         <f>COUNTIF('Level 3'!G$7:G$8, D$11)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="28">
         <f>E11/E$4 * 100</f>
         <v>16.666666666666664</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="61"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="46" t="s">
+      <c r="B12" s="73"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="28">
         <f>COUNTIF('Level 3'!G$7:G$8, D12)</f>
         <v>1</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="28">
         <f>E12/E$4 * 100</f>
         <v>16.666666666666664</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="61"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="50" t="s">
+      <c r="B13" s="73"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="28">
         <f>E11+E12</f>
         <v>2</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="28">
         <f>E13/E$4 * 100</f>
         <v>33.333333333333329</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="61"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="44"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="61"/>
-      <c r="C15" s="52" t="s">
+      <c r="B15" s="73"/>
+      <c r="C15" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="28">
         <f>COUNTIF('Level 3'!G$15:G$16, 'Results statistics'!D15)</f>
         <v>1</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="28">
         <f>E15/E$4 * 100</f>
         <v>16.666666666666664</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="61"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="47" t="s">
+      <c r="B16" s="73"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="28">
         <f>COUNTIF('Level 3'!G$15:G$16, 'Results statistics'!D16)</f>
         <v>1</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="28">
         <f>E16/E$4 * 100</f>
         <v>16.666666666666664</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="61"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="53" t="s">
+      <c r="B17" s="73"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="28">
         <f>E15+E16</f>
         <v>2</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="28">
         <f>E17/E$4 * 100</f>
         <v>33.333333333333329</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="61"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="61"/>
-      <c r="C19" s="54" t="s">
+      <c r="B19" s="73"/>
+      <c r="C19" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="28">
         <f>COUNTIF('Level 3'!G$23:G$24, D19)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="28">
         <f>E19/E$4 * 100</f>
         <v>16.666666666666664</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="61"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="48" t="s">
+      <c r="B20" s="73"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="28">
         <f>COUNTIF('Level 3'!G$23:G$24, D20)</f>
         <v>1</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="28">
         <f>E20/E$4 * 100</f>
         <v>16.666666666666664</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="62"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56" t="s">
+      <c r="B21" s="74"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="35">
         <f>E19+E20</f>
         <v>2</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="35">
         <f>E21/E$4 * 100</f>
         <v>33.333333333333329</v>
       </c>

--- a/Approach/1 - Communication/Communication part of the approach - Description and prompts.xlsx
+++ b/Approach/1 - Communication/Communication part of the approach - Description and prompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludov\Desktop\Thesis\Chapters\GitHub repository\Approach\1 - Communication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00DC3F6-09A6-4613-BFC2-C7863F92EC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34875D9D-7741-42AA-BFF7-81FB9EAE2425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12000" yWindow="0" windowWidth="12000" windowHeight="12900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -734,15 +734,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -751,24 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1138,48 +1138,48 @@
   <dimension ref="B1:K34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="B6" sqref="B6:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="2:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="2:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
@@ -1190,129 +1190,129 @@
       <c r="B6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="60"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="21">
         <v>1</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
     </row>
     <row r="9" spans="2:11" ht="312.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20">
         <v>2</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="10" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="20">
         <v>2.1</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
     </row>
     <row r="11" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20">
         <v>3</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
     </row>
     <row r="12" spans="2:11" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20">
         <v>4</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="13" spans="2:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="20">
         <v>5</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
@@ -1335,57 +1335,63 @@
       <c r="B17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
     </row>
     <row r="18" spans="2:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <v>0</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
     </row>
     <row r="19" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="2:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="17">
         <v>2</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
     </row>
     <row r="21" spans="2:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17">
         <v>3</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="64"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:K3"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C6:K6"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C18:E18"/>
@@ -1394,12 +1400,6 @@
     <mergeCell ref="C12:K12"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
-    <mergeCell ref="B1:K3"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1411,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBC7536-A3AD-48EB-B3AE-05D4F8AB5A74}">
   <dimension ref="C2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
